--- a/TestData/Interest.xlsx
+++ b/TestData/Interest.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMAGES\Eclipse\Selenium_MVN\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9AD440-3D50-42E1-A91C-46557BF7EC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F287B3-8402-411D-A700-EEEA480557CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{B3EBA501-3E25-418D-9B87-9370D621387E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3EBA501-3E25-418D-9B87-9370D621387E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Principle</t>
   </si>
@@ -73,13 +73,20 @@
   </si>
   <si>
     <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +94,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +140,26 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,14 +175,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -298,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,14 +506,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE25B60-3278-4C8F-B988-B1FED2CE17AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55948B7A-46D7-45E8-AC93-EF7E1357B6B3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -456,150 +522,167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.28515625"/>
+    <col min="3" max="3" customWidth="true" width="11.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.5703125"/>
+    <col min="7" max="8" customWidth="true" width="16.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>20000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>24000</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="H2" t="s" s="7">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>30000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>43500</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H3" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>40000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>41700</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H4" t="s" s="9">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>50000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>50075.34</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H5" t="s" s="10">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>60000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>62000</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="H6" t="s" s="11">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
